--- a/Win32/Binaries/Table/equip_gem_rule.xlsx
+++ b/Win32/Binaries/Table/equip_gem_rule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>equipid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,91 +59,111 @@
     <t>condition6</t>
   </si>
   <si>
+    <t>装备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1个宝石孔等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1个孔开启条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2个宝石孔等级</t>
+  </si>
+  <si>
+    <t>第2个孔开启条件</t>
+  </si>
+  <si>
+    <t>第3个宝石孔等级</t>
+  </si>
+  <si>
+    <t>第3个孔开启条件</t>
+  </si>
+  <si>
+    <t>第4个宝石孔等级</t>
+  </si>
+  <si>
+    <t>第4个孔开启条件</t>
+  </si>
+  <si>
+    <t>第5个宝石孔等级</t>
+  </si>
+  <si>
+    <t>第5个孔开启条件</t>
+  </si>
+  <si>
+    <t>第6个宝石孔等级</t>
+  </si>
+  <si>
+    <t>第6个孔开启条件</t>
+  </si>
+  <si>
     <t>1;200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1代表花费铜钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代表花费元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3代表达成成就，分号后面填成就id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;36002</t>
+  </si>
+  <si>
+    <t>3;36003</t>
+  </si>
+  <si>
+    <t>3;36004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1;200</t>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;20000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2;10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1个宝石孔等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1个孔开启条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2个宝石孔等级</t>
-  </si>
-  <si>
-    <t>第2个孔开启条件</t>
-  </si>
-  <si>
-    <t>第3个宝石孔等级</t>
-  </si>
-  <si>
-    <t>第3个孔开启条件</t>
-  </si>
-  <si>
-    <t>第4个宝石孔等级</t>
-  </si>
-  <si>
-    <t>第4个孔开启条件</t>
-  </si>
-  <si>
-    <t>第5个宝石孔等级</t>
-  </si>
-  <si>
-    <t>第5个孔开启条件</t>
-  </si>
-  <si>
-    <t>第6个宝石孔等级</t>
-  </si>
-  <si>
-    <t>第6个孔开启条件</t>
-  </si>
-  <si>
-    <t>1;200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1代表花费铜钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2代表花费元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3代表达成成就，分号后面填成就id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;36002</t>
-  </si>
-  <si>
-    <t>3;36003</t>
-  </si>
-  <si>
-    <t>3;36004</t>
+    <t>1;50000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -524,43 +544,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -609,35 +629,32 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <f>B3+5</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <f>D3+5</f>
         <v>20</v>
       </c>
       <c r="H3">
-        <f>F3+5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <f>H3+5</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -645,35 +662,32 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:J10" si="0">B4+5</f>
-        <v>15</v>
+        <f t="shared" ref="D4:D10" si="0">B4+5</f>
+        <v>10</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -681,35 +695,32 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -717,35 +728,32 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -753,35 +761,32 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -789,35 +794,32 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -825,35 +827,32 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -861,35 +860,65 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="1">B11+5</f>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -900,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B3" sqref="B3:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,43 +942,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -998,36 +1027,32 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <f>B3+5</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <f>D3+5</f>
         <v>20</v>
       </c>
       <c r="H3">
-        <f>F3+5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <f>H3+5</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="L3">
-        <f>J3+5</f>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -1035,36 +1060,32 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:L10" si="0">B4+5</f>
-        <v>15</v>
+        <f t="shared" ref="D4:D10" si="0">B4+5</f>
+        <v>10</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -1072,36 +1093,32 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -1109,36 +1126,32 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -1146,36 +1159,32 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -1183,36 +1192,32 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1220,36 +1225,32 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -1257,60 +1258,121 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>